--- a/TestResults/DepnCountryRltspGet.xlsx
+++ b/TestResults/DepnCountryRltspGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -50,7 +50,7 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>Verify that the Dependent Cntry RS service is successfully retrieving all Dependent Cntry RS details dependentCountryId is passed in URI</t>
+    <t>Verify that the Dependent Cntry RS service is successfully retrieving all Dependent Cntry RS details dependentRelationshipId is passed in URI</t>
   </si>
   <si>
     <t>Get</t>
@@ -65,110 +65,20 @@
     <t>Success</t>
   </si>
   <si>
-    <t>202</t>
+    <t>200</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 2, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t>Response_geopoliticalId: 3502748459483656237
-DB_geopoliticalId: 3502748459483656237
-Response_dependentRelationshipDescription: Country
-DB_dependentRelationshipDescription: Country
+    <t>Total number of records matching between DB &amp; Response: 9, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_geopoliticalId: 8891272403861446339
+DB_geopoliticalId: 8891272403861446339
+Response_dependentRelationshipDescription: Test_Country1_To_Test_State1
+DB_dependentRelationshipDescription: Test_Country1_To_Test_State1
 </t>
-  </si>
-  <si>
-    <t>Response_geopoliticalId: 5009308346513012688
-DB_geopoliticalId: 5009308346513012688
-Response_dependentRelationshipDescription: Test_12e
-DB_dependentRelationshipDescription: Test_12e
-</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>Verify that the Error message is displayed when the invalid dependentCountryId (not exist in depn_cntry_rltsp table) is passed in URI</t>
-  </si>
-  <si>
-    <t>Input_dependentCountryCd: 7920791805813546200
-</t>
-  </si>
-  <si>
-    <t>
-{
-	"meta":
-	{
-		"version":"1.0.0",
-		"message":
-		{
-			"data":null,
-			"internalMessage":"There are no records for the specified criteria",
-			"status":"Success"
-		}
-	},
-	"data":
-	[
-	]
-}</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>Verify that the Format Error message is displayed when the invalid format dependentCountryId is passed in URI</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>
-{
-	"errorMessages":
-	{
-		"e":"Not correct format for Id!"
-	},
-	"errorSummary":"Numeric Value Not Found",
-	"timestamp":"18-07-2019 09:25:51"
-}</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>Verify that the Error message is displayed when thedependentCountryId not passed in URI</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>
-{
-	"timestamp":"2019-07-18T21:25:52.179+0000",
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/dependentCountryRelationships/"
-}</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>Verify that the Exception is received when the URI is not correct</t>
-  </si>
-  <si>
-    <t>
-{
-	"timestamp":"2019-07-18T21:25:52.864+0000",
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/dependentCountryRelationship"
-}</t>
   </si>
 </sst>
 </file>
@@ -176,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="79">
+  <fonts count="112">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -189,6 +99,171 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -642,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -876,6 +951,105 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -890,17 +1064,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -1036,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s" s="32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="33">
         <v>18</v>
@@ -1048,10 +1222,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="35">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="36">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="37">
         <v>13</v>
@@ -1060,19 +1234,19 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="39">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s" s="40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s" s="42">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="44">
         <v>18</v>
@@ -1084,10 +1258,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="46">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="47">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="48">
         <v>13</v>
@@ -1099,16 +1273,16 @@
         <v>15</v>
       </c>
       <c r="F6" t="s" s="51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s" s="52">
         <v>15</v>
       </c>
       <c r="H6" t="s" s="53">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s" s="54">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="55">
         <v>18</v>
@@ -1120,10 +1294,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="59">
         <v>13</v>
@@ -1135,16 +1309,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s" s="62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s" s="63">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s" s="64">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="66">
         <v>18</v>
@@ -1156,10 +1330,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="70">
         <v>13</v>
@@ -1171,16 +1345,16 @@
         <v>15</v>
       </c>
       <c r="F8" t="s" s="73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s" s="74">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s" s="75">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="77">
         <v>18</v>
@@ -1189,6 +1363,114 @@
         <v>15</v>
       </c>
       <c r="L8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="79">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="80">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="81">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="82">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="85">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s" s="86">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s" s="87">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s" s="88">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s" s="89">
+        <v>15</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="90">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="91">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="92">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="93">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s" s="97">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s" s="98">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s" s="99">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s" s="100">
+        <v>15</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="101">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s" s="102">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s" s="103">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="104">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="105">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="106">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="107">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s" s="108">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s" s="109">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="110">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s" s="111">
+        <v>15</v>
+      </c>
+      <c r="L11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
